--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_5_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2116113.2693795</v>
+        <v>2113482.876577765</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2668988.932318828</v>
+        <v>2668988.932318824</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4710514.801755085</v>
+        <v>4710514.801755087</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7508538.962838999</v>
+        <v>7508538.962839</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>330.0941517942946</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>18.21400808707682</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7591374042687</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>95.58737878262353</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>317.0070145898098</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>72.6542526496137</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>95.98918911403649</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>340.3198000135729</v>
       </c>
       <c r="X8" t="n">
-        <v>358.1633212879153</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.8381367815073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1314,7 +1314,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>134.1558743390372</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>202.8766404867115</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>314.9719827426496</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -1384,13 +1384,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H11" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.535560979117125</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S11" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T11" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
@@ -1438,7 +1438,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I12" t="n">
-        <v>39.77957330346645</v>
+        <v>39.77957330346644</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.242832149011047</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S12" t="n">
         <v>128.6645579096422</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>93.4950921179896</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>225.0801936691905</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>33.19819856853483</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H14" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.535560979117125</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S14" t="n">
         <v>153.5746362079504</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>38.068033560842</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I15" t="n">
-        <v>39.77957330346645</v>
+        <v>39.77957330346644</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.242832149011047</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S15" t="n">
         <v>128.6645579096422</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>146.9263274458018</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>47.68921674757476</v>
       </c>
       <c r="H16" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S16" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>250.8132325904582</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1864,7 +1864,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I17" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.535560979117097</v>
+        <v>6.535560979117129</v>
       </c>
       <c r="S17" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.0998921310412</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>119.0066451354659</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1943,7 +1943,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I18" t="n">
-        <v>39.77957330346644</v>
+        <v>39.77957330346645</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.242832149011029</v>
+        <v>7.242832149011047</v>
       </c>
       <c r="S18" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T18" t="n">
         <v>174.1470195830784</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>282.5722990436504</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>66.86313829970996</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.6426332533967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>224.0367141706437</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>315.7755108463297</v>
       </c>
       <c r="I20" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.535560979117097</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>153.5746362079504</v>
@@ -2137,7 +2137,7 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -2146,10 +2146,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>184.2368140468986</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>84.85793197620509</v>
       </c>
       <c r="I21" t="n">
-        <v>39.77957330346644</v>
+        <v>39.77957330346645</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.242832149011029</v>
+        <v>7.242832149011047</v>
       </c>
       <c r="S21" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T21" t="n">
         <v>174.1470195830784</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1076428686667</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.3855858878903</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>408.5363925405122</v>
@@ -2338,7 +2338,7 @@
         <v>315.7755108463297</v>
       </c>
       <c r="I23" t="n">
-        <v>69.75933901888938</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>253.1556234364382</v>
@@ -2380,7 +2380,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>171.7953275603219</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.24283214901104</v>
+        <v>7.242832149011043</v>
       </c>
       <c r="S24" t="n">
         <v>128.6645579096422</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>96.24442634414457</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>85.40974684052387</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>408.5363925405122</v>
+        <v>144.5565233731431</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T26" t="n">
-        <v>35.69140538345242</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>12.85172073170352</v>
       </c>
       <c r="H28" t="n">
-        <v>22.13125760062925</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>350.2707343350128</v>
+        <v>115.7946034082336</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>219.0998921310412</v>
@@ -2857,7 +2857,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U31" t="n">
-        <v>259.2388111506823</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.3278721667933</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3037,19 +3037,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>35.1916634914932</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>408.5363925405122</v>
       </c>
       <c r="H32" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>267.6748481917753</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.87893464137857</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>97.78952011219327</v>
       </c>
       <c r="T34" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>282.5722990436504</v>
@@ -3268,25 +3268,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>272.2179836297149</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H35" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>6.535560979117118</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>46.42170276826991</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>338.6857412035168</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>14.38465326559117</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>232.4136522254854</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>119.5307933049545</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.7541924701798</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>135.0428023148505</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3520,10 +3520,10 @@
         <v>408.5363925405122</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I38" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>153.5746362079504</v>
       </c>
       <c r="T38" t="n">
-        <v>211.2841141093056</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.242832149011033</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S39" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T39" t="n">
         <v>174.1470195830784</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>34.55306787201685</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U40" t="n">
         <v>282.5722990436504</v>
@@ -3726,7 +3726,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>33.87893464137854</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>408.5363925405122</v>
       </c>
       <c r="H41" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>35.43702957134678</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>6.535560979117101</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.0998921310412</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>64.29470886133068</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.242832149011033</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S42" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T42" t="n">
         <v>174.1470195830784</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.71202272325384</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3915,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.4177511048128</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>227.0936643980181</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H44" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>6.535560979117101</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.0998921310412</v>
@@ -4036,16 +4036,16 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>319.9686809794664</v>
       </c>
       <c r="X44" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.242832149011033</v>
+        <v>7.24283214901104</v>
       </c>
       <c r="S45" t="n">
-        <v>128.6645579096421</v>
+        <v>128.6645579096422</v>
       </c>
       <c r="T45" t="n">
         <v>174.1470195830784</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.9558086790118</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>100.2780459886881</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.505261540228</v>
+        <v>1709.401029800382</v>
       </c>
       <c r="C2" t="n">
-        <v>473.3297600431587</v>
+        <v>1316.225528303313</v>
       </c>
       <c r="D2" t="n">
-        <v>473.3297600431587</v>
+        <v>930.7843995199803</v>
       </c>
       <c r="E2" t="n">
-        <v>473.3297600431587</v>
+        <v>528.2008746365248</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>194.7724384806716</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K2" t="n">
-        <v>191.9627430103717</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L2" t="n">
-        <v>685.2830347289006</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M2" t="n">
-        <v>1231.283934773481</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N2" t="n">
-        <v>1759.095218410943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>2199.134819303272</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2199.134819303272</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U2" t="n">
-        <v>1681.888704297768</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V2" t="n">
-        <v>1663.490716331024</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W2" t="n">
-        <v>1663.490716331024</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X2" t="n">
-        <v>1663.490716331024</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="Y2" t="n">
-        <v>1267.000007251625</v>
+        <v>2109.895775511779</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>850.6182020620834</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N3" t="n">
-        <v>1436.116207068686</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O3" t="n">
-        <v>1952.636489659666</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2358.257858376064</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>824.8590032756731</v>
+        <v>543.0980767231359</v>
       </c>
       <c r="C4" t="n">
-        <v>661.4659351905532</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="D4" t="n">
-        <v>661.4659351905532</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="E4" t="n">
-        <v>661.4659351905532</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F4" t="n">
-        <v>504.1400004035262</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G4" t="n">
-        <v>335.8859465029718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>180.4073954644657</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
         <v>47.31297010154361</v>
@@ -4533,7 +4533,7 @@
         <v>824.8590032756731</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.8590032756731</v>
+        <v>728.3060954144372</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>473.3297600431586</v>
+        <v>1655.986794363964</v>
       </c>
       <c r="C5" t="n">
-        <v>473.3297600431586</v>
+        <v>1262.811292866895</v>
       </c>
       <c r="D5" t="n">
-        <v>473.3297600431586</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E5" t="n">
-        <v>473.3297600431586</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F5" t="n">
-        <v>56.43532157313638</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G5" t="n">
         <v>47.31297010154361</v>
@@ -4567,52 +4567,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L5" t="n">
-        <v>503.6092283712875</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M5" t="n">
-        <v>1049.610128415868</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T5" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U5" t="n">
-        <v>2104.154988922119</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V5" t="n">
-        <v>2030.76685493261</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W5" t="n">
-        <v>1659.767819900897</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.315214833954</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y5" t="n">
-        <v>873.8245057545555</v>
+        <v>1976.195900010237</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>793.1268795456108</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>637.5680674048133</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>480.2421326177862</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>311.9880787172318</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>156.5095276787258</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
         <v>47.31297010154361</v>
@@ -4755,22 +4755,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="W7" t="n">
-        <v>948.7599926430961</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="X7" t="n">
-        <v>948.7599926430961</v>
+        <v>144.2717469844088</v>
       </c>
       <c r="Y7" t="n">
-        <v>948.7599926430961</v>
+        <v>144.2717469844088</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="C8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4810,10 +4810,10 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>406.2953261290054</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>952.2962261735861</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4840,16 +4840,16 @@
         <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2104.154988922119</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>2104.154988922119</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="X8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="Y8" t="n">
-        <v>1742.373856308063</v>
+        <v>1418.290805874553</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.1400004035262</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>504.1400004035262</v>
+        <v>834.7820767021797</v>
       </c>
       <c r="D10" t="n">
-        <v>504.1400004035262</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="E10" t="n">
-        <v>504.1400004035262</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>689.3480190948275</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>689.3480190948275</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>689.3480190948275</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>689.3480190948275</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.3480190948275</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1535.996249402439</v>
+        <v>2017.026059334921</v>
       </c>
       <c r="C11" t="n">
-        <v>1331.070349920912</v>
+        <v>1623.850557837852</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.070349920912</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E11" t="n">
-        <v>928.4868250374565</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F11" t="n">
-        <v>511.5923865674342</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G11" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H11" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I11" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J11" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473727</v>
       </c>
       <c r="K11" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L11" t="n">
         <v>1251.67373183635</v>
@@ -5071,22 +5071,22 @@
         <v>3516.075217809458</v>
       </c>
       <c r="T11" t="n">
-        <v>3294.76219545487</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="U11" t="n">
-        <v>3039.049444508973</v>
+        <v>3516.075217809458</v>
       </c>
       <c r="V11" t="n">
-        <v>2696.942635212491</v>
+        <v>3173.968408512976</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.943600180779</v>
+        <v>2802.969373481264</v>
       </c>
       <c r="X11" t="n">
-        <v>1936.490995113836</v>
+        <v>2413.51676841432</v>
       </c>
       <c r="Y11" t="n">
-        <v>1936.490995113836</v>
+        <v>2017.026059334921</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>211.4299322985498</v>
       </c>
       <c r="K12" t="n">
-        <v>211.4299322985498</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L12" t="n">
-        <v>211.4299322985498</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M12" t="n">
-        <v>905.6015372827437</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N12" t="n">
         <v>1054.822136524713</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.8089845471588</v>
+        <v>167.99554078218</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6038666131481</v>
+        <v>167.99554078218</v>
       </c>
       <c r="D13" t="n">
-        <v>400.9707535156628</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E13" t="n">
-        <v>245.4119413748652</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I13" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J13" t="n">
         <v>73.55605379431174</v>
@@ -5217,7 +5217,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P13" t="n">
-        <v>1155.455528488097</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q13" t="n">
         <v>1177.274776709496</v>
@@ -5229,22 +5229,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="T13" t="n">
-        <v>1177.274776709496</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U13" t="n">
-        <v>1177.274776709496</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V13" t="n">
-        <v>1177.274776709496</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W13" t="n">
-        <v>949.9210457305155</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="X13" t="n">
-        <v>949.9210457305155</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.8089845471588</v>
+        <v>167.99554078218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2162.708035380049</v>
+        <v>1698.872541413053</v>
       </c>
       <c r="C14" t="n">
-        <v>2129.174501472438</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="D14" t="n">
-        <v>1743.733372689106</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E14" t="n">
-        <v>1341.149847805651</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F14" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G14" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H14" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I14" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J14" t="n">
-        <v>259.7759762473729</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K14" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L14" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M14" t="n">
-        <v>1883.677129957884</v>
+        <v>1883.677129957883</v>
       </c>
       <c r="N14" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O14" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P14" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q14" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R14" t="n">
         <v>3671.201112969004</v>
@@ -5308,22 +5308,22 @@
         <v>3516.075217809458</v>
       </c>
       <c r="T14" t="n">
-        <v>3294.762195454871</v>
+        <v>3294.76219545487</v>
       </c>
       <c r="U14" t="n">
-        <v>3294.762195454871</v>
+        <v>3294.76219545487</v>
       </c>
       <c r="V14" t="n">
-        <v>2952.655386158389</v>
+        <v>3256.309636302505</v>
       </c>
       <c r="W14" t="n">
-        <v>2952.655386158389</v>
+        <v>2885.310601270792</v>
       </c>
       <c r="X14" t="n">
-        <v>2563.202781091446</v>
+        <v>2495.857996203849</v>
       </c>
       <c r="Y14" t="n">
-        <v>2563.202781091446</v>
+        <v>2099.36728712445</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J15" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K15" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L15" t="n">
-        <v>73.55605379431174</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M15" t="n">
-        <v>598.7035852052032</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N15" t="n">
-        <v>1322.638921012355</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O15" t="n">
-        <v>1901.50987658722</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P15" t="n">
-        <v>2357.173157305615</v>
+        <v>2148.486588476379</v>
       </c>
       <c r="Q15" t="n">
         <v>2357.173157305615</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.4520245867383</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="C16" t="n">
-        <v>375.4520245867383</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="D16" t="n">
-        <v>375.4520245867383</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="E16" t="n">
-        <v>375.4520245867383</v>
+        <v>121.726979801963</v>
       </c>
       <c r="F16" t="n">
-        <v>227.0415928233021</v>
+        <v>121.726979801963</v>
       </c>
       <c r="G16" t="n">
-        <v>227.0415928233021</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H16" t="n">
         <v>73.55605379431174</v>
@@ -5454,7 +5454,7 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P16" t="n">
-        <v>1155.455528488097</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q16" t="n">
         <v>1177.274776709496</v>
@@ -5463,25 +5463,25 @@
         <v>1063.45296668672</v>
       </c>
       <c r="S16" t="n">
-        <v>864.5434309492707</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T16" t="n">
-        <v>864.5434309492707</v>
+        <v>828.6917018124923</v>
       </c>
       <c r="U16" t="n">
-        <v>864.5434309492707</v>
+        <v>543.2651371219363</v>
       </c>
       <c r="V16" t="n">
-        <v>598.5640857700949</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="W16" t="n">
-        <v>598.5640857700949</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="X16" t="n">
-        <v>598.5640857700949</v>
+        <v>277.2857919427605</v>
       </c>
       <c r="Y16" t="n">
-        <v>375.4520245867383</v>
+        <v>277.2857919427605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.350002969508</v>
+        <v>2263.450030756677</v>
       </c>
       <c r="C17" t="n">
-        <v>2129.174501472438</v>
+        <v>2010.103331170356</v>
       </c>
       <c r="D17" t="n">
-        <v>1743.733372689106</v>
+        <v>1624.662202387024</v>
       </c>
       <c r="E17" t="n">
-        <v>1341.149847805651</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F17" t="n">
-        <v>924.2554093356284</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G17" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H17" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I17" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473727</v>
       </c>
       <c r="K17" t="n">
         <v>681.0612104920358</v>
@@ -5530,37 +5530,37 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O17" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P17" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q17" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R17" t="n">
         <v>3671.201112969004</v>
       </c>
       <c r="S17" t="n">
-        <v>3516.075217809458</v>
+        <v>3671.201112969004</v>
       </c>
       <c r="T17" t="n">
-        <v>3294.762195454871</v>
+        <v>3449.888090614416</v>
       </c>
       <c r="U17" t="n">
-        <v>3039.049444508973</v>
+        <v>3449.888090614416</v>
       </c>
       <c r="V17" t="n">
-        <v>3039.049444508973</v>
+        <v>3449.888090614416</v>
       </c>
       <c r="W17" t="n">
-        <v>3039.049444508973</v>
+        <v>3449.888090614416</v>
       </c>
       <c r="X17" t="n">
-        <v>2918.840712048907</v>
+        <v>3060.435485547473</v>
       </c>
       <c r="Y17" t="n">
-        <v>2522.350002969508</v>
+        <v>2663.944776468074</v>
       </c>
     </row>
     <row r="18">
@@ -5582,10 +5582,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F18" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G18" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H18" t="n">
         <v>113.7374409695304</v>
@@ -5603,16 +5603,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="M18" t="n">
-        <v>767.7276587785058</v>
+        <v>767.7276587785057</v>
       </c>
       <c r="N18" t="n">
-        <v>1491.662994585658</v>
+        <v>1491.662994585657</v>
       </c>
       <c r="O18" t="n">
-        <v>2070.533950160523</v>
+        <v>2070.533950160522</v>
       </c>
       <c r="P18" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q18" t="n">
         <v>2357.173157305615</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>552.3974186059279</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="C19" t="n">
-        <v>552.3974186059279</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="D19" t="n">
-        <v>552.3974186059279</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="E19" t="n">
-        <v>552.3974186059279</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="F19" t="n">
-        <v>395.0714838189008</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="G19" t="n">
-        <v>227.0415928233021</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="H19" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I19" t="n">
         <v>73.55605379431174</v>
@@ -5679,19 +5679,19 @@
         <v>180.916480058984</v>
       </c>
       <c r="L19" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M19" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N19" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O19" t="n">
         <v>1009.007396819615</v>
       </c>
       <c r="P19" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q19" t="n">
         <v>1177.274776709496</v>
@@ -5703,22 +5703,22 @@
         <v>1177.274776709496</v>
       </c>
       <c r="T19" t="n">
-        <v>942.5135118352684</v>
+        <v>942.5135118352682</v>
       </c>
       <c r="U19" t="n">
-        <v>657.0869471447124</v>
+        <v>657.0869471447122</v>
       </c>
       <c r="V19" t="n">
-        <v>657.0869471447124</v>
+        <v>589.5484236096516</v>
       </c>
       <c r="W19" t="n">
-        <v>657.0869471447124</v>
+        <v>589.5484236096516</v>
       </c>
       <c r="X19" t="n">
-        <v>657.0869471447124</v>
+        <v>355.4681013926348</v>
       </c>
       <c r="Y19" t="n">
-        <v>552.3974186059279</v>
+        <v>355.4681013926348</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1535.996249402439</v>
+        <v>1605.174681115899</v>
       </c>
       <c r="C20" t="n">
-        <v>1309.696538118961</v>
+        <v>1211.99917961883</v>
       </c>
       <c r="D20" t="n">
-        <v>924.2554093356284</v>
+        <v>1211.99917961883</v>
       </c>
       <c r="E20" t="n">
-        <v>924.2554093356284</v>
+        <v>809.4156547353741</v>
       </c>
       <c r="F20" t="n">
-        <v>924.2554093356284</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="G20" t="n">
-        <v>511.5923865674342</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H20" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I20" t="n">
         <v>73.55605379431174</v>
@@ -5755,7 +5755,7 @@
         <v>259.7759762473725</v>
       </c>
       <c r="K20" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L20" t="n">
         <v>1251.67373183635</v>
@@ -5764,7 +5764,7 @@
         <v>1883.677129957883</v>
       </c>
       <c r="N20" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O20" t="n">
         <v>3021.445901261525</v>
@@ -5773,31 +5773,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q20" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R20" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S20" t="n">
-        <v>3516.075217809458</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T20" t="n">
-        <v>3294.762195454871</v>
+        <v>3301.363772201453</v>
       </c>
       <c r="U20" t="n">
-        <v>3039.049444508973</v>
+        <v>3301.363772201453</v>
       </c>
       <c r="V20" t="n">
-        <v>2696.942635212492</v>
+        <v>2959.256962904972</v>
       </c>
       <c r="W20" t="n">
-        <v>2325.943600180779</v>
+        <v>2588.257927873259</v>
       </c>
       <c r="X20" t="n">
-        <v>1936.490995113836</v>
+        <v>2402.160135906695</v>
       </c>
       <c r="Y20" t="n">
-        <v>1936.490995113836</v>
+        <v>2005.669426827296</v>
       </c>
     </row>
     <row r="21">
@@ -5819,10 +5819,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F21" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G21" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H21" t="n">
         <v>113.7374409695304</v>
@@ -5834,19 +5834,19 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K21" t="n">
-        <v>73.55605379431174</v>
+        <v>435.6120971457461</v>
       </c>
       <c r="L21" t="n">
-        <v>73.55605379431174</v>
+        <v>976.0784736788813</v>
       </c>
       <c r="M21" t="n">
-        <v>598.7035852052031</v>
+        <v>1670.250078663075</v>
       </c>
       <c r="N21" t="n">
-        <v>1322.638921012355</v>
+        <v>1670.250078663075</v>
       </c>
       <c r="O21" t="n">
-        <v>1901.50987658722</v>
+        <v>2249.12103423794</v>
       </c>
       <c r="P21" t="n">
         <v>2357.173157305615</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.55605379431174</v>
+        <v>780.1225646178973</v>
       </c>
       <c r="C22" t="n">
-        <v>73.55605379431174</v>
+        <v>780.1225646178973</v>
       </c>
       <c r="D22" t="n">
-        <v>73.55605379431174</v>
+        <v>780.1225646178973</v>
       </c>
       <c r="E22" t="n">
-        <v>73.55605379431174</v>
+        <v>624.5637524770998</v>
       </c>
       <c r="F22" t="n">
-        <v>73.55605379431174</v>
+        <v>521.4247192764263</v>
       </c>
       <c r="G22" t="n">
-        <v>73.55605379431174</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H22" t="n">
-        <v>73.55605379431174</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I22" t="n">
         <v>73.55605379431174</v>
@@ -5916,46 +5916,46 @@
         <v>180.916480058984</v>
       </c>
       <c r="L22" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M22" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N22" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O22" t="n">
         <v>1009.007396819615</v>
       </c>
       <c r="P22" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q22" t="n">
         <v>1177.274776709496</v>
       </c>
       <c r="R22" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S22" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="T22" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="U22" t="n">
-        <v>981.9358010651624</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="V22" t="n">
-        <v>715.9564558859867</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="W22" t="n">
-        <v>715.9564558859867</v>
+        <v>780.1225646178973</v>
       </c>
       <c r="X22" t="n">
-        <v>481.8761336689697</v>
+        <v>780.1225646178973</v>
       </c>
       <c r="Y22" t="n">
-        <v>258.764072485613</v>
+        <v>780.1225646178973</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.126181193983</v>
+        <v>1720.014435716153</v>
       </c>
       <c r="C23" t="n">
-        <v>1695.126181193983</v>
+        <v>1326.838934219084</v>
       </c>
       <c r="D23" t="n">
-        <v>1695.126181193983</v>
+        <v>1326.838934219084</v>
       </c>
       <c r="E23" t="n">
-        <v>1292.542656310527</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="F23" t="n">
-        <v>875.648217840505</v>
+        <v>924.2554093356284</v>
       </c>
       <c r="G23" t="n">
-        <v>462.9851950723109</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H23" t="n">
-        <v>144.0200326012707</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I23" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J23" t="n">
-        <v>259.7759762473725</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K23" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L23" t="n">
         <v>1251.67373183635</v>
@@ -6013,28 +6013,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R23" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S23" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T23" t="n">
-        <v>3449.888090614416</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="U23" t="n">
-        <v>3194.175339668519</v>
+        <v>3422.089938769689</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.068530372037</v>
+        <v>3079.983129473208</v>
       </c>
       <c r="W23" t="n">
-        <v>2481.069495340325</v>
+        <v>2906.452495573893</v>
       </c>
       <c r="X23" t="n">
-        <v>2091.616890273382</v>
+        <v>2516.999890506949</v>
       </c>
       <c r="Y23" t="n">
-        <v>1695.126181193983</v>
+        <v>2120.50918142755</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J24" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K24" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L24" t="n">
-        <v>976.0784736788813</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M24" t="n">
-        <v>1322.638921012355</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N24" t="n">
-        <v>1322.638921012355</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O24" t="n">
-        <v>1901.50987658722</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P24" t="n">
-        <v>2357.173157305615</v>
+        <v>2148.486588476379</v>
       </c>
       <c r="Q24" t="n">
         <v>2357.173157305615</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>170.7726460611244</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C25" t="n">
-        <v>170.7726460611244</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D25" t="n">
-        <v>170.7726460611244</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E25" t="n">
         <v>73.55605379431174</v>
@@ -6165,34 +6165,34 @@
         <v>1009.007396819615</v>
       </c>
       <c r="P25" t="n">
-        <v>1155.455528488098</v>
+        <v>1155.455528488097</v>
       </c>
       <c r="Q25" t="n">
         <v>1177.274776709496</v>
       </c>
       <c r="R25" t="n">
-        <v>1177.274776709496</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S25" t="n">
-        <v>1177.274776709496</v>
+        <v>864.5434309492707</v>
       </c>
       <c r="T25" t="n">
-        <v>1177.274776709496</v>
+        <v>864.5434309492707</v>
       </c>
       <c r="U25" t="n">
-        <v>1177.274776709496</v>
+        <v>579.1168662587147</v>
       </c>
       <c r="V25" t="n">
-        <v>911.2954315303203</v>
+        <v>579.1168662587147</v>
       </c>
       <c r="W25" t="n">
-        <v>627.965029461498</v>
+        <v>579.1168662587147</v>
       </c>
       <c r="X25" t="n">
-        <v>393.8847072444811</v>
+        <v>345.0365440416978</v>
       </c>
       <c r="Y25" t="n">
-        <v>170.7726460611244</v>
+        <v>258.764072485613</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2084.313670196385</v>
+        <v>2255.703670477216</v>
       </c>
       <c r="C26" t="n">
-        <v>1691.138168699316</v>
+        <v>1862.528168980146</v>
       </c>
       <c r="D26" t="n">
-        <v>1305.697039915984</v>
+        <v>1477.087040196814</v>
       </c>
       <c r="E26" t="n">
-        <v>903.1135150325281</v>
+        <v>1074.503515313359</v>
       </c>
       <c r="F26" t="n">
-        <v>486.2190765625058</v>
+        <v>657.6090768433363</v>
       </c>
       <c r="G26" t="n">
-        <v>73.55605379431174</v>
+        <v>511.5923865674342</v>
       </c>
       <c r="H26" t="n">
-        <v>73.55605379431174</v>
+        <v>192.6272240963941</v>
       </c>
       <c r="I26" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J26" t="n">
-        <v>259.7759762473734</v>
+        <v>259.7759762473726</v>
       </c>
       <c r="K26" t="n">
-        <v>681.0612104920365</v>
+        <v>681.0612104920358</v>
       </c>
       <c r="L26" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M26" t="n">
-        <v>1883.677129957884</v>
+        <v>1883.677129957883</v>
       </c>
       <c r="N26" t="n">
-        <v>2498.882522004027</v>
+        <v>2498.882522004026</v>
       </c>
       <c r="O26" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P26" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S26" t="n">
-        <v>3677.802689715587</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="T26" t="n">
-        <v>3641.750765085837</v>
+        <v>3301.363772201453</v>
       </c>
       <c r="U26" t="n">
-        <v>3641.750765085837</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="V26" t="n">
-        <v>3641.750765085837</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="W26" t="n">
-        <v>3270.751730054124</v>
+        <v>3045.651021255556</v>
       </c>
       <c r="X26" t="n">
-        <v>2881.299124987181</v>
+        <v>2656.198416188613</v>
       </c>
       <c r="Y26" t="n">
-        <v>2484.808415907782</v>
+        <v>2656.198416188613</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J27" t="n">
-        <v>73.55605379431174</v>
+        <v>152.2997166401431</v>
       </c>
       <c r="K27" t="n">
-        <v>88.0009394950257</v>
+        <v>514.3557599915775</v>
       </c>
       <c r="L27" t="n">
-        <v>628.4673160281609</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="M27" t="n">
-        <v>1322.638921012355</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="N27" t="n">
-        <v>1322.638921012355</v>
+        <v>1054.822136524713</v>
       </c>
       <c r="O27" t="n">
-        <v>1901.50987658722</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P27" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q27" t="n">
         <v>2357.173157305615</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2752.071885555089</v>
+        <v>679.3354122579697</v>
       </c>
       <c r="C28" t="n">
-        <v>2752.071885555089</v>
+        <v>679.3354122579697</v>
       </c>
       <c r="D28" t="n">
-        <v>2596.438772457604</v>
+        <v>523.7022991604845</v>
       </c>
       <c r="E28" t="n">
-        <v>2596.438772457604</v>
+        <v>523.7022991604845</v>
       </c>
       <c r="F28" t="n">
-        <v>2596.438772457604</v>
+        <v>366.3763643734574</v>
       </c>
       <c r="G28" t="n">
-        <v>2596.438772457604</v>
+        <v>353.3948282808276</v>
       </c>
       <c r="H28" t="n">
-        <v>2574.083966800403</v>
+        <v>199.9092892518373</v>
       </c>
       <c r="I28" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J28" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K28" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L28" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M28" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N28" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O28" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P28" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q28" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R28" t="n">
-        <v>3677.802689715587</v>
+        <v>1063.45296668672</v>
       </c>
       <c r="S28" t="n">
-        <v>3677.802689715587</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="T28" t="n">
-        <v>3677.802689715587</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="U28" t="n">
-        <v>3677.802689715587</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.802689715587</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="W28" t="n">
-        <v>3394.472287646764</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.391965429747</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="Y28" t="n">
-        <v>2937.279904246391</v>
+        <v>864.5434309492709</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1139.50554032304</v>
+        <v>1690.685617296112</v>
       </c>
       <c r="C29" t="n">
-        <v>746.3300388259709</v>
+        <v>1297.510115799042</v>
       </c>
       <c r="D29" t="n">
-        <v>746.3300388259709</v>
+        <v>912.06898701571</v>
       </c>
       <c r="E29" t="n">
-        <v>746.3300388259709</v>
+        <v>509.4854621322546</v>
       </c>
       <c r="F29" t="n">
         <v>392.5212162653519</v>
@@ -6478,37 +6478,37 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O29" t="n">
-        <v>3021.445901261524</v>
+        <v>3021.445901261525</v>
       </c>
       <c r="P29" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q29" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R29" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S29" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T29" t="n">
-        <v>3294.762195454871</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U29" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V29" t="n">
-        <v>2696.942635212492</v>
+        <v>2858.67010711862</v>
       </c>
       <c r="W29" t="n">
-        <v>2325.943600180779</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="X29" t="n">
-        <v>1936.490995113836</v>
+        <v>2487.671072086908</v>
       </c>
       <c r="Y29" t="n">
-        <v>1540.000286034437</v>
+        <v>2091.180363007509</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>73.55605379431174</v>
       </c>
       <c r="K30" t="n">
-        <v>73.55605379431174</v>
+        <v>88.0009394950257</v>
       </c>
       <c r="L30" t="n">
-        <v>73.55605379431174</v>
+        <v>628.4673160281609</v>
       </c>
       <c r="M30" t="n">
-        <v>767.7276587785057</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="N30" t="n">
-        <v>1491.662994585657</v>
+        <v>1322.638921012355</v>
       </c>
       <c r="O30" t="n">
         <v>1901.50987658722</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H31" t="n">
-        <v>2714.967155051454</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I31" t="n">
-        <v>2588.613919593929</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J31" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K31" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L31" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M31" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N31" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O31" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P31" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q31" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R31" t="n">
-        <v>3563.980879692811</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S31" t="n">
-        <v>3365.071343955361</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T31" t="n">
-        <v>3130.310079081134</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U31" t="n">
-        <v>2868.452694080445</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="V31" t="n">
-        <v>2868.452694080445</v>
+        <v>676.5341666560927</v>
       </c>
       <c r="W31" t="n">
-        <v>2868.452694080445</v>
+        <v>530.7484371946853</v>
       </c>
       <c r="X31" t="n">
-        <v>2868.452694080445</v>
+        <v>296.6681149776684</v>
       </c>
       <c r="Y31" t="n">
-        <v>2868.452694080445</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1738.419174455922</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C32" t="n">
-        <v>1345.243672958853</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D32" t="n">
-        <v>959.8025441755206</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E32" t="n">
-        <v>924.2554093356284</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F32" t="n">
-        <v>924.2554093356284</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G32" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H32" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I32" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J32" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K32" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920356</v>
       </c>
       <c r="L32" t="n">
         <v>1251.67373183635</v>
@@ -6715,7 +6715,7 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O32" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P32" t="n">
         <v>3440.065528972629</v>
@@ -6733,19 +6733,19 @@
         <v>3522.67679455604</v>
       </c>
       <c r="U32" t="n">
-        <v>3266.964043610143</v>
+        <v>3522.67679455604</v>
       </c>
       <c r="V32" t="n">
-        <v>2924.857234313662</v>
+        <v>3252.298160018894</v>
       </c>
       <c r="W32" t="n">
-        <v>2924.857234313662</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="X32" t="n">
-        <v>2535.404629246718</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2138.913920167319</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J33" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K33" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L33" t="n">
-        <v>73.55605379431174</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M33" t="n">
-        <v>598.7035852052032</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="N33" t="n">
-        <v>1322.638921012355</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="O33" t="n">
-        <v>1901.50987658722</v>
+        <v>1808.123957167313</v>
       </c>
       <c r="P33" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q33" t="n">
         <v>2357.173157305615</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="C34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J34" t="n">
-        <v>2574.083966800402</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K34" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L34" t="n">
-        <v>2878.235737854403</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M34" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N34" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O34" t="n">
-        <v>3509.535309825705</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P34" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q34" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R34" t="n">
-        <v>3677.802689715586</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S34" t="n">
-        <v>3677.802689715586</v>
+        <v>1078.497483666877</v>
       </c>
       <c r="T34" t="n">
-        <v>3443.041424841359</v>
+        <v>1078.497483666877</v>
       </c>
       <c r="U34" t="n">
-        <v>3157.614860150803</v>
+        <v>793.0709189763206</v>
       </c>
       <c r="V34" t="n">
-        <v>2891.635514971627</v>
+        <v>527.0915737971449</v>
       </c>
       <c r="W34" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="X34" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
       <c r="Y34" t="n">
-        <v>2608.305112902805</v>
+        <v>243.7611717283225</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1313.927953820789</v>
+        <v>1556.945763175066</v>
       </c>
       <c r="C35" t="n">
-        <v>1313.927953820789</v>
+        <v>1163.770261677997</v>
       </c>
       <c r="D35" t="n">
-        <v>928.4868250374565</v>
+        <v>888.8026014459613</v>
       </c>
       <c r="E35" t="n">
-        <v>928.4868250374565</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="F35" t="n">
-        <v>511.5923865674342</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G35" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H35" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I35" t="n">
         <v>73.55605379431174</v>
@@ -6940,7 +6940,7 @@
         <v>259.7759762473725</v>
       </c>
       <c r="K35" t="n">
-        <v>681.0612104920356</v>
+        <v>681.0612104920353</v>
       </c>
       <c r="L35" t="n">
         <v>1251.67373183635</v>
@@ -6961,28 +6961,28 @@
         <v>3677.802689715586</v>
       </c>
       <c r="R35" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S35" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T35" t="n">
-        <v>3469.184608952619</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U35" t="n">
-        <v>3213.471858006722</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="V35" t="n">
-        <v>2871.36504871024</v>
+        <v>3114.382858064518</v>
       </c>
       <c r="W35" t="n">
-        <v>2500.366013678528</v>
+        <v>2743.383823032805</v>
       </c>
       <c r="X35" t="n">
-        <v>2110.913408611585</v>
+        <v>2353.931217965862</v>
       </c>
       <c r="Y35" t="n">
-        <v>1714.422699532186</v>
+        <v>1957.440508886463</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J36" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K36" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L36" t="n">
-        <v>614.022430327447</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M36" t="n">
-        <v>1308.194035311641</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N36" t="n">
-        <v>2032.129371118792</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O36" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P36" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q36" t="n">
         <v>2357.173157305615</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>426.3210155174477</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C37" t="n">
-        <v>256.1158975834369</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D37" t="n">
-        <v>256.1158975834369</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E37" t="n">
-        <v>256.1158975834369</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F37" t="n">
-        <v>256.1158975834369</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G37" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H37" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I37" t="n">
-        <v>88.08600658783817</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J37" t="n">
         <v>73.55605379431174</v>
@@ -7128,19 +7128,19 @@
         <v>743.6039760978194</v>
       </c>
       <c r="U37" t="n">
-        <v>743.6039760978194</v>
+        <v>622.8658010423098</v>
       </c>
       <c r="V37" t="n">
-        <v>743.6039760978194</v>
+        <v>356.8864558631341</v>
       </c>
       <c r="W37" t="n">
-        <v>743.6039760978194</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="X37" t="n">
-        <v>743.6039760978194</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.529034208749</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1810.209339001398</v>
+        <v>1743.926677312002</v>
       </c>
       <c r="C38" t="n">
-        <v>1810.209339001398</v>
+        <v>1607.5198062869</v>
       </c>
       <c r="D38" t="n">
-        <v>1424.768210218066</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="E38" t="n">
-        <v>1022.18468533461</v>
+        <v>1222.078677503568</v>
       </c>
       <c r="F38" t="n">
-        <v>605.2902468645882</v>
+        <v>805.184239033546</v>
       </c>
       <c r="G38" t="n">
-        <v>192.6272240963941</v>
+        <v>392.5212162653519</v>
       </c>
       <c r="H38" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I38" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J38" t="n">
-        <v>259.7759762473727</v>
+        <v>259.7759762473734</v>
       </c>
       <c r="K38" t="n">
-        <v>681.061210492036</v>
+        <v>681.0612104920365</v>
       </c>
       <c r="L38" t="n">
         <v>1251.67373183635</v>
       </c>
       <c r="M38" t="n">
-        <v>1883.677129957883</v>
+        <v>1883.677129957884</v>
       </c>
       <c r="N38" t="n">
         <v>2498.882522004027</v>
@@ -7204,22 +7204,22 @@
         <v>3522.676794556041</v>
       </c>
       <c r="T38" t="n">
-        <v>3309.258497475934</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="U38" t="n">
-        <v>3309.258497475934</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="V38" t="n">
-        <v>2967.151688179453</v>
+        <v>3301.363772201454</v>
       </c>
       <c r="W38" t="n">
-        <v>2596.15265314774</v>
+        <v>2930.364737169741</v>
       </c>
       <c r="X38" t="n">
-        <v>2206.700048080797</v>
+        <v>2540.912132102798</v>
       </c>
       <c r="Y38" t="n">
-        <v>1810.209339001398</v>
+        <v>2144.421423023399</v>
       </c>
     </row>
     <row r="39">
@@ -7241,10 +7241,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F39" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G39" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H39" t="n">
         <v>113.7374409695304</v>
@@ -7253,25 +7253,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J39" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K39" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L39" t="n">
-        <v>614.0224303274471</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.366865923598</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N39" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O39" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P39" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q39" t="n">
         <v>2357.173157305615</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="J40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="K40" t="n">
-        <v>2681.444393065075</v>
+        <v>180.916480058984</v>
       </c>
       <c r="L40" t="n">
-        <v>2878.235737854404</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M40" t="n">
-        <v>3098.966613236722</v>
+        <v>598.4387002306314</v>
       </c>
       <c r="N40" t="n">
-        <v>3315.776654803892</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O40" t="n">
-        <v>3509.535309825706</v>
+        <v>1009.007396819615</v>
       </c>
       <c r="P40" t="n">
-        <v>3655.983441494188</v>
+        <v>1155.455528488098</v>
       </c>
       <c r="Q40" t="n">
-        <v>3677.802689715587</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="R40" t="n">
-        <v>3642.900600955974</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="S40" t="n">
-        <v>3642.900600955974</v>
+        <v>1177.274776709496</v>
       </c>
       <c r="T40" t="n">
-        <v>3642.900600955974</v>
+        <v>942.5135118352684</v>
       </c>
       <c r="U40" t="n">
-        <v>3357.474036265418</v>
+        <v>657.0869471447124</v>
       </c>
       <c r="V40" t="n">
-        <v>3091.494691086242</v>
+        <v>391.1076019655367</v>
       </c>
       <c r="W40" t="n">
-        <v>2808.16428901742</v>
+        <v>107.7771998967143</v>
       </c>
       <c r="X40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="Y40" t="n">
-        <v>2574.083966800403</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1636.738244779068</v>
+        <v>2084.313670196385</v>
       </c>
       <c r="C41" t="n">
-        <v>1243.562743281998</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D41" t="n">
-        <v>1243.562743281998</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E41" t="n">
-        <v>840.9792183985428</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F41" t="n">
-        <v>840.9792183985428</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G41" t="n">
-        <v>428.3161956303487</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H41" t="n">
-        <v>109.3510331593085</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I41" t="n">
         <v>73.55605379431174</v>
       </c>
       <c r="J41" t="n">
-        <v>259.7759762473726</v>
+        <v>259.7759762473725</v>
       </c>
       <c r="K41" t="n">
-        <v>681.0612104920358</v>
+        <v>681.0612104920353</v>
       </c>
       <c r="L41" t="n">
         <v>1251.67373183635</v>
@@ -7426,37 +7426,37 @@
         <v>2498.882522004026</v>
       </c>
       <c r="O41" t="n">
-        <v>3021.445901261525</v>
+        <v>3021.445901261524</v>
       </c>
       <c r="P41" t="n">
         <v>3440.065528972629</v>
       </c>
       <c r="Q41" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S41" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T41" t="n">
-        <v>3449.888090614417</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="U41" t="n">
-        <v>3194.175339668519</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="V41" t="n">
-        <v>3194.175339668519</v>
+        <v>3335.695880419105</v>
       </c>
       <c r="W41" t="n">
-        <v>2823.176304636807</v>
+        <v>3270.751730054124</v>
       </c>
       <c r="X41" t="n">
-        <v>2433.723699569864</v>
+        <v>2881.299124987181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2037.232990490465</v>
+        <v>2484.808415907782</v>
       </c>
     </row>
     <row r="42">
@@ -7478,10 +7478,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F42" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G42" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H42" t="n">
         <v>113.7374409695304</v>
@@ -7490,25 +7490,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J42" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K42" t="n">
-        <v>73.55605379431174</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L42" t="n">
-        <v>73.55605379431174</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M42" t="n">
-        <v>598.7035852052031</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N42" t="n">
-        <v>1322.638921012355</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O42" t="n">
-        <v>1901.50987658722</v>
+        <v>1692.823307757985</v>
       </c>
       <c r="P42" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q42" t="n">
         <v>2357.173157305615</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>542.0739138196216</v>
+        <v>679.3354122579697</v>
       </c>
       <c r="C43" t="n">
-        <v>542.0739138196216</v>
+        <v>679.3354122579697</v>
       </c>
       <c r="D43" t="n">
-        <v>386.4408007221363</v>
+        <v>523.7022991604845</v>
       </c>
       <c r="E43" t="n">
-        <v>230.8819885813388</v>
+        <v>523.7022991604845</v>
       </c>
       <c r="F43" t="n">
-        <v>73.55605379431174</v>
+        <v>366.3763643734574</v>
       </c>
       <c r="G43" t="n">
-        <v>73.55605379431174</v>
+        <v>366.3763643734574</v>
       </c>
       <c r="H43" t="n">
-        <v>73.55605379431174</v>
+        <v>214.4392420453637</v>
       </c>
       <c r="I43" t="n">
-        <v>73.55605379431174</v>
+        <v>88.08600658783817</v>
       </c>
       <c r="J43" t="n">
         <v>73.55605379431174</v>
@@ -7575,13 +7575,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L43" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M43" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N43" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O43" t="n">
         <v>1009.007396819615</v>
@@ -7596,25 +7596,25 @@
         <v>1063.45296668672</v>
       </c>
       <c r="S43" t="n">
-        <v>1063.45296668672</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="T43" t="n">
-        <v>1063.45296668672</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="U43" t="n">
-        <v>778.0264019961639</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="V43" t="n">
-        <v>778.0264019961639</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="W43" t="n">
-        <v>778.0264019961639</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="X43" t="n">
-        <v>778.0264019961639</v>
+        <v>864.5434309492709</v>
       </c>
       <c r="Y43" t="n">
-        <v>554.9143408128073</v>
+        <v>864.5434309492709</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1936.490995113836</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="C44" t="n">
-        <v>1543.315493616767</v>
+        <v>1691.138168699316</v>
       </c>
       <c r="D44" t="n">
-        <v>1157.874364833434</v>
+        <v>1305.697039915984</v>
       </c>
       <c r="E44" t="n">
-        <v>928.4868250374565</v>
+        <v>903.1135150325281</v>
       </c>
       <c r="F44" t="n">
-        <v>511.5923865674342</v>
+        <v>486.2190765625058</v>
       </c>
       <c r="G44" t="n">
-        <v>511.5923865674342</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H44" t="n">
-        <v>192.6272240963941</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I44" t="n">
         <v>73.55605379431174</v>
@@ -7669,31 +7669,31 @@
         <v>3440.065528972629</v>
       </c>
       <c r="Q44" t="n">
-        <v>3677.802689715587</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="R44" t="n">
-        <v>3671.201112969004</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="S44" t="n">
-        <v>3516.075217809458</v>
+        <v>3677.802689715586</v>
       </c>
       <c r="T44" t="n">
-        <v>3294.762195454871</v>
+        <v>3456.489667360999</v>
       </c>
       <c r="U44" t="n">
-        <v>3039.049444508973</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="V44" t="n">
-        <v>2696.942635212492</v>
+        <v>3200.776916415102</v>
       </c>
       <c r="W44" t="n">
-        <v>2325.943600180779</v>
+        <v>2877.576228557055</v>
       </c>
       <c r="X44" t="n">
-        <v>1936.490995113836</v>
+        <v>2488.123623490112</v>
       </c>
       <c r="Y44" t="n">
-        <v>1936.490995113836</v>
+        <v>2091.632914410713</v>
       </c>
     </row>
     <row r="45">
@@ -7715,10 +7715,10 @@
         <v>443.676767228548</v>
       </c>
       <c r="F45" t="n">
-        <v>319.2449611116798</v>
+        <v>319.2449611116799</v>
       </c>
       <c r="G45" t="n">
-        <v>199.4525237737779</v>
+        <v>199.452523773778</v>
       </c>
       <c r="H45" t="n">
         <v>113.7374409695304</v>
@@ -7727,25 +7727,25 @@
         <v>73.55605379431174</v>
       </c>
       <c r="J45" t="n">
-        <v>73.55605379431174</v>
+        <v>211.4299322985498</v>
       </c>
       <c r="K45" t="n">
-        <v>435.6120971457461</v>
+        <v>573.4859756499842</v>
       </c>
       <c r="L45" t="n">
-        <v>976.0784736788814</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.250078663075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.30220173075</v>
+        <v>1113.952352183119</v>
       </c>
       <c r="O45" t="n">
-        <v>2357.173157305615</v>
+        <v>1633.693092099578</v>
       </c>
       <c r="P45" t="n">
-        <v>2357.173157305615</v>
+        <v>2089.356372817973</v>
       </c>
       <c r="Q45" t="n">
         <v>2357.173157305615</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1160.147697235747</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="C46" t="n">
-        <v>989.942579301736</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3094662042508</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="E46" t="n">
-        <v>678.7506540634533</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="F46" t="n">
-        <v>521.4247192764263</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="G46" t="n">
-        <v>353.3948282808276</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="H46" t="n">
-        <v>199.9092892518373</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="I46" t="n">
         <v>73.55605379431174</v>
@@ -7812,13 +7812,13 @@
         <v>180.916480058984</v>
       </c>
       <c r="L46" t="n">
-        <v>377.7078248483129</v>
+        <v>377.7078248483128</v>
       </c>
       <c r="M46" t="n">
         <v>598.4387002306314</v>
       </c>
       <c r="N46" t="n">
-        <v>815.2487417978014</v>
+        <v>815.2487417978012</v>
       </c>
       <c r="O46" t="n">
         <v>1009.007396819615</v>
@@ -7833,25 +7833,25 @@
         <v>1177.274776709496</v>
       </c>
       <c r="S46" t="n">
-        <v>1160.147697235747</v>
+        <v>978.3652409720471</v>
       </c>
       <c r="T46" t="n">
-        <v>1160.147697235747</v>
+        <v>743.6039760978194</v>
       </c>
       <c r="U46" t="n">
-        <v>1160.147697235747</v>
+        <v>458.1774114072634</v>
       </c>
       <c r="V46" t="n">
-        <v>1160.147697235747</v>
+        <v>356.8864558631341</v>
       </c>
       <c r="W46" t="n">
-        <v>1160.147697235747</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.147697235747</v>
+        <v>73.55605379431174</v>
       </c>
       <c r="Y46" t="n">
-        <v>1160.147697235747</v>
+        <v>73.55605379431174</v>
       </c>
     </row>
   </sheetData>
@@ -7978,16 +7978,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>470.4637632346382</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
         <v>682.2612020826953</v>
@@ -7996,10 +7996,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>312.6943406142593</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8066,19 +8066,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.45345285401153</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8458,13 +8458,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
-        <v>593.8453860234358</v>
+        <v>647.0581217063165</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8537,10 +8537,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>234.9862648617782</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
@@ -8771,16 +8771,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>46.85259463716365</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>32.58530581164347</v>
+        <v>518.783448109349</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N12" t="n">
-        <v>167.2541680515167</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9005,19 +9005,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>46.85259463716365</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>32.58530581164347</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>555.7685120022197</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.19856433495294</v>
+        <v>267.9930783038777</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>57.43547118736294</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K18" t="n">
-        <v>46.85259463716361</v>
+        <v>46.85259463716366</v>
       </c>
       <c r="L18" t="n">
-        <v>32.58530581164341</v>
+        <v>32.58530581164347</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9260,10 +9260,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>326.0705316305211</v>
+        <v>55.54852709755034</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>57.43547118736294</v>
+        <v>57.43547118736296</v>
       </c>
       <c r="K21" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>32.58530581164341</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>555.7685120022196</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932578</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>145.6795376129279</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.19856433495291</v>
+        <v>57.19856433495295</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,10 +9725,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>375.3775179846257</v>
+        <v>25.31646007202633</v>
       </c>
       <c r="N24" t="n">
-        <v>16.52629002932575</v>
+        <v>16.52629002932576</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.19856433495293</v>
+        <v>267.9930783038777</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,16 +9953,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>57.43547118736296</v>
+        <v>136.9745245669906</v>
       </c>
       <c r="K27" t="n">
-        <v>61.44338827424846</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N27" t="n">
         <v>16.52629002932575</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10193,19 +10193,19 @@
         <v>57.43547118736296</v>
       </c>
       <c r="K30" t="n">
-        <v>46.85259463716364</v>
+        <v>61.44338827424846</v>
       </c>
       <c r="L30" t="n">
-        <v>32.58530581164345</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O30" t="n">
-        <v>443.693830623918</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>32.58530581164345</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>555.7685120022197</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>29.70708112738964</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>320.6091260805897</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>57.43547118736296</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>46.85259463716364</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O36" t="n">
-        <v>358.034137881756</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P36" t="n">
-        <v>36.53597895871121</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.19856433495293</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>470.1088192600575</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P39" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>46.85259463716361</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>32.58530581164342</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>555.7685120022196</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>437.074428514255</v>
       </c>
       <c r="Q42" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>57.43547118736294</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>25.31646007202632</v>
       </c>
       <c r="N45" t="n">
-        <v>125.6698486835422</v>
+        <v>16.52629002932575</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>554.6977275076511</v>
       </c>
       <c r="P45" t="n">
-        <v>36.53597895871118</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.19856433495291</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>186.3671059953872</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>66.6147347528493</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>60.5816898485208</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>166.3495920856427</v>
@@ -23439,7 +23439,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>196.9204403800746</v>
       </c>
       <c r="T13" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>55.4169043789436</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>356.0455479135638</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>253.1556234364382</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.6177076426748</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,16 +23661,16 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8.826347993354972</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3495920856427</v>
+        <v>118.660375338068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I16" t="n">
         <v>125.0897031029503</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T16" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>138.4305138916405</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -23797,7 +23797,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>266.5514338808078</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I19" t="n">
-        <v>125.0897031029502</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.38465326559115</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S19" t="n">
-        <v>196.9204403800745</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>196.4564134276741</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.2383073181264</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>165.207032311455</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>408.5363925405122</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>6.535560979117129</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>201.3212649693751</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24135,22 +24135,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>53.64503257049006</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3495920856427</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.9506836387004</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>125.0897031029502</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.38465326559115</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>196.9204403800745</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T22" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U22" t="n">
-        <v>89.18671315576012</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>48.12111958017213</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>6.535560979117122</v>
       </c>
       <c r="S23" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>195.4937171210735</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>57.75879767524494</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.4711937309992</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>263.9798691673691</v>
       </c>
       <c r="H26" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>117.8804585990615</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>6.535560979117118</v>
       </c>
       <c r="S26" t="n">
-        <v>153.5746362079504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>183.4084867475888</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1556234364382</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3495920856427</v>
+        <v>153.4978713539392</v>
       </c>
       <c r="H28" t="n">
-        <v>129.8194260380712</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>14.38465326559117</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>112.6835919225485</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>232.4136522254854</v>
@@ -24663,13 +24663,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>62.45475975030922</v>
+        <v>296.9308906770884</v>
       </c>
       <c r="G29" t="n">
         <v>408.5363925405122</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24855,13 +24855,13 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>196.9204403800746</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>23.33348789296815</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>136.1692258813408</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,19 +24925,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>363.3660261431277</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>219.0998921310412</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>71.01089301174147</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>134.6241321132921</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
@@ -25125,10 +25125,10 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S34" t="n">
-        <v>196.9204403800746</v>
+        <v>99.13092026788128</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>232.4136522254854</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>109.368733865784</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T35" t="n">
-        <v>172.6781893627713</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
@@ -25326,7 +25326,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H37" t="n">
         <v>151.9506836387004</v>
@@ -25335,7 +25335,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5722990436504</v>
+        <v>163.0415057386959</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.12674810134328</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>254.2009441672482</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>315.7755108463297</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,19 +25438,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.535560979117101</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.815778021735667</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>253.1556234364382</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25572,7 +25572,7 @@
         <v>125.0897031029503</v>
       </c>
       <c r="J40" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>78.13052405053165</v>
+        <v>112.6835919225485</v>
       </c>
       <c r="S40" t="n">
         <v>196.9204403800746</v>
       </c>
       <c r="T40" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>197.8605843534682</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I41" t="n">
-        <v>82.44342902771473</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S41" t="n">
         <v>153.5746362079504</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.0998921310412</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1556234364382</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.9943358200647</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>170.6439157811344</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>166.3495920856427</v>
       </c>
       <c r="H43" t="n">
-        <v>151.9506836387004</v>
+        <v>1.532932533887674</v>
       </c>
       <c r="I43" t="n">
-        <v>125.0897031029503</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.38465326559116</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.9204403800746</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>232.4136522254854</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5722990436504</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25854,7 +25854,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>171.4640252366028</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.5363925405122</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.7755108463297</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>117.8804585990615</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>6.535560979117118</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>153.5746362079504</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>47.32036370192901</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,28 +26025,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3495920856427</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.9506836387004</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>125.0897031029503</v>
       </c>
       <c r="J46" t="n">
-        <v>14.38465326559116</v>
+        <v>14.38465326559117</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>112.6835919225485</v>
       </c>
       <c r="S46" t="n">
-        <v>179.9646317010628</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>232.4136522254854</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5722990436504</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>163.0415057386959</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>231.7395189948467</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612374.5119003681</v>
+        <v>612374.5119003683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612374.5119003683</v>
+        <v>612374.5119003681</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612374.5119003681</v>
+        <v>612374.5119003683</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>559029.7520894059</v>
       </c>
       <c r="C2" t="n">
+        <v>559029.7520894061</v>
+      </c>
+      <c r="D2" t="n">
         <v>559029.752089406</v>
       </c>
-      <c r="D2" t="n">
-        <v>559029.7520894061</v>
-      </c>
       <c r="E2" t="n">
+        <v>437341.453044066</v>
+      </c>
+      <c r="F2" t="n">
         <v>437341.4530440661</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>437341.4530440661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>437341.4530440662</v>
+      </c>
+      <c r="I2" t="n">
         <v>437341.4530440663</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>437341.4530440662</v>
+      </c>
+      <c r="K2" t="n">
+        <v>437341.4530440659</v>
+      </c>
+      <c r="L2" t="n">
+        <v>437341.4530440661</v>
+      </c>
+      <c r="M2" t="n">
+        <v>437341.453044066</v>
+      </c>
+      <c r="N2" t="n">
+        <v>437341.453044066</v>
+      </c>
+      <c r="O2" t="n">
         <v>437341.4530440663</v>
       </c>
-      <c r="H2" t="n">
+      <c r="P2" t="n">
         <v>437341.4530440661</v>
-      </c>
-      <c r="I2" t="n">
-        <v>437341.4530440659</v>
-      </c>
-      <c r="J2" t="n">
-        <v>437341.4530440661</v>
-      </c>
-      <c r="K2" t="n">
-        <v>437341.4530440662</v>
-      </c>
-      <c r="L2" t="n">
-        <v>437341.453044066</v>
-      </c>
-      <c r="M2" t="n">
-        <v>437341.4530440661</v>
-      </c>
-      <c r="N2" t="n">
-        <v>437341.4530440662</v>
-      </c>
-      <c r="O2" t="n">
-        <v>437341.453044066</v>
-      </c>
-      <c r="P2" t="n">
-        <v>437341.4530440662</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154739.4343656035</v>
+        <v>154739.4343656034</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,22 +26438,22 @@
         <v>62792.28270658746</v>
       </c>
       <c r="I4" t="n">
-        <v>62792.28270658744</v>
+        <v>62792.28270658746</v>
       </c>
       <c r="J4" t="n">
+        <v>62792.28270658746</v>
+      </c>
+      <c r="K4" t="n">
+        <v>62792.28270658746</v>
+      </c>
+      <c r="L4" t="n">
         <v>62792.28270658745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>62792.28270658745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>62792.28270658746</v>
       </c>
       <c r="M4" t="n">
         <v>62792.28270658745</v>
       </c>
       <c r="N4" t="n">
-        <v>62792.28270658746</v>
+        <v>62792.28270658745</v>
       </c>
       <c r="O4" t="n">
         <v>62792.28270658746</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79672.59351569752</v>
+        <v>79672.59351569746</v>
       </c>
       <c r="C6" t="n">
+        <v>277868.3995074426</v>
+      </c>
+      <c r="D6" t="n">
         <v>277868.3995074425</v>
       </c>
-      <c r="D6" t="n">
-        <v>277868.3995074427</v>
-      </c>
       <c r="E6" t="n">
-        <v>119147.510408208</v>
+        <v>118754.9675080616</v>
       </c>
       <c r="F6" t="n">
-        <v>315963.7429747105</v>
+        <v>315571.200074564</v>
       </c>
       <c r="G6" t="n">
-        <v>315963.7429747105</v>
+        <v>315571.200074564</v>
       </c>
       <c r="H6" t="n">
-        <v>315963.7429747104</v>
+        <v>315571.2000745641</v>
       </c>
       <c r="I6" t="n">
-        <v>315963.7429747101</v>
+        <v>315571.2000745642</v>
       </c>
       <c r="J6" t="n">
-        <v>161224.3086091069</v>
+        <v>160831.7657089607</v>
       </c>
       <c r="K6" t="n">
-        <v>315963.7429747104</v>
+        <v>315571.2000745639</v>
       </c>
       <c r="L6" t="n">
-        <v>315963.7429747102</v>
+        <v>315571.200074564</v>
       </c>
       <c r="M6" t="n">
-        <v>234215.225117553</v>
+        <v>233822.6822174067</v>
       </c>
       <c r="N6" t="n">
-        <v>315963.7429747104</v>
+        <v>315571.2000745639</v>
       </c>
       <c r="O6" t="n">
-        <v>315963.7429747102</v>
+        <v>315571.2000745642</v>
       </c>
       <c r="P6" t="n">
-        <v>315963.7429747104</v>
+        <v>315571.2000745641</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>123.0654348207075</v>
       </c>
       <c r="G3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="H3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="I3" t="n">
         <v>123.0654348207075</v>
@@ -26773,13 +26773,13 @@
         <v>123.0654348207075</v>
       </c>
       <c r="N3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="O3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
       <c r="P3" t="n">
-        <v>123.0654348207076</v>
+        <v>123.0654348207075</v>
       </c>
     </row>
     <row r="4">
@@ -26801,22 +26801,22 @@
         <v>919.4506724288966</v>
       </c>
       <c r="F4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="G4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="H4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="I4" t="n">
         <v>919.4506724288966</v>
       </c>
       <c r="J4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="K4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="L4" t="n">
         <v>919.4506724288966</v>
@@ -26828,10 +26828,10 @@
         <v>919.4506724288967</v>
       </c>
       <c r="O4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
       <c r="P4" t="n">
-        <v>919.4506724288967</v>
+        <v>919.4506724288966</v>
       </c>
     </row>
   </sheetData>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>82.63134229102735</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>320.47173311644</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27447,7 +27447,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.74392935040197</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>125.2935617888995</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>79.48278366447312</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>266.0314885539031</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>87.36674939035177</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>23.65888910788253</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27827,16 +27827,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>26.96924466782247</v>
       </c>
       <c r="X8" t="n">
-        <v>27.3947577283584</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>55.66492997316341</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,7 +28067,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>148.4285295014809</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4947354163646528</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H11" t="n">
-        <v>5.066709082844502</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I11" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J11" t="n">
-        <v>41.99005004467949</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K11" t="n">
-        <v>62.93220021939526</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L11" t="n">
-        <v>78.07295921796502</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M11" t="n">
-        <v>86.87121017873991</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N11" t="n">
-        <v>88.276877180486</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O11" t="n">
-        <v>83.35735188400997</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P11" t="n">
-        <v>71.14357129250759</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q11" t="n">
         <v>53.42585919394845</v>
       </c>
       <c r="R11" t="n">
-        <v>31.07742359821615</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S11" t="n">
         <v>11.27378330040954</v>
       </c>
       <c r="T11" t="n">
-        <v>2.165704285136269</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03957883330917222</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2647067843313331</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H12" t="n">
         <v>2.556510259199981</v>
       </c>
       <c r="I12" t="n">
-        <v>9.113808144741075</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J12" t="n">
-        <v>25.00898614597038</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K12" t="n">
-        <v>42.7443406961697</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L12" t="n">
-        <v>57.47504104527476</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M12" t="n">
-        <v>67.07066197728558</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N12" t="n">
-        <v>68.84582282484089</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O12" t="n">
-        <v>62.98047776149924</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P12" t="n">
-        <v>50.54738586060343</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.78958882096105</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R12" t="n">
         <v>16.43504052190506</v>
       </c>
       <c r="S12" t="n">
-        <v>4.916812419487697</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T12" t="n">
         <v>1.066954100002171</v>
@@ -31910,46 +31910,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2219212759061938</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H13" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I13" t="n">
-        <v>6.673778006342631</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J13" t="n">
-        <v>15.6898342065679</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K13" t="n">
-        <v>25.78321732801051</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L13" t="n">
-        <v>32.99364132881722</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M13" t="n">
         <v>34.78716873136818</v>
       </c>
       <c r="N13" t="n">
-        <v>33.96000761208148</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O13" t="n">
         <v>31.36756361626821</v>
       </c>
       <c r="P13" t="n">
-        <v>26.84036958778183</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.58288065792683</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R13" t="n">
-        <v>9.978387551200312</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S13" t="n">
-        <v>3.867482599201576</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9482090879628279</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U13" t="n">
         <v>0.01210479686761059</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4947354163646528</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H14" t="n">
-        <v>5.066709082844502</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I14" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J14" t="n">
-        <v>41.99005004467949</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K14" t="n">
-        <v>62.93220021939526</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L14" t="n">
-        <v>78.07295921796502</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M14" t="n">
-        <v>86.87121017873991</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N14" t="n">
-        <v>88.276877180486</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O14" t="n">
-        <v>83.35735188400997</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P14" t="n">
-        <v>71.14357129250759</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q14" t="n">
         <v>53.42585919394845</v>
       </c>
       <c r="R14" t="n">
-        <v>31.07742359821615</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S14" t="n">
         <v>11.27378330040954</v>
       </c>
       <c r="T14" t="n">
-        <v>2.165704285136269</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03957883330917222</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2647067843313331</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H15" t="n">
         <v>2.556510259199981</v>
       </c>
       <c r="I15" t="n">
-        <v>9.113808144741075</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J15" t="n">
-        <v>25.00898614597038</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K15" t="n">
-        <v>42.7443406961697</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L15" t="n">
-        <v>57.47504104527476</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M15" t="n">
-        <v>67.07066197728558</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N15" t="n">
-        <v>68.84582282484089</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O15" t="n">
-        <v>62.98047776149924</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P15" t="n">
-        <v>50.54738586060343</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.78958882096105</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R15" t="n">
         <v>16.43504052190506</v>
       </c>
       <c r="S15" t="n">
-        <v>4.916812419487697</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T15" t="n">
         <v>1.066954100002171</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2219212759061938</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H16" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I16" t="n">
-        <v>6.673778006342631</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J16" t="n">
-        <v>15.6898342065679</v>
+        <v>15.68983420656791</v>
       </c>
       <c r="K16" t="n">
-        <v>25.78321732801051</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L16" t="n">
-        <v>32.99364132881722</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M16" t="n">
         <v>34.78716873136818</v>
       </c>
       <c r="N16" t="n">
-        <v>33.96000761208148</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O16" t="n">
         <v>31.36756361626821</v>
       </c>
       <c r="P16" t="n">
-        <v>26.84036958778183</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.58288065792683</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R16" t="n">
-        <v>9.978387551200312</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S16" t="n">
-        <v>3.867482599201576</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9482090879628279</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U16" t="n">
         <v>0.01210479686761059</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.4947354163646528</v>
       </c>
       <c r="H17" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844502</v>
       </c>
       <c r="I17" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J17" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467949</v>
       </c>
       <c r="K17" t="n">
-        <v>62.93220021939532</v>
+        <v>62.93220021939526</v>
       </c>
       <c r="L17" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796502</v>
       </c>
       <c r="M17" t="n">
-        <v>86.87121017874</v>
+        <v>86.8712101787399</v>
       </c>
       <c r="N17" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048598</v>
       </c>
       <c r="O17" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400996</v>
       </c>
       <c r="P17" t="n">
-        <v>71.14357129250766</v>
+        <v>71.14357129250759</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394844</v>
       </c>
       <c r="R17" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821615</v>
       </c>
       <c r="S17" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T17" t="n">
-        <v>2.165704285136271</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313331</v>
       </c>
       <c r="H18" t="n">
-        <v>2.556510259199983</v>
+        <v>2.55651025919998</v>
       </c>
       <c r="I18" t="n">
-        <v>9.113808144741084</v>
+        <v>9.113808144741075</v>
       </c>
       <c r="J18" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597038</v>
       </c>
       <c r="K18" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616969</v>
       </c>
       <c r="L18" t="n">
-        <v>57.47504104527482</v>
+        <v>57.47504104527476</v>
       </c>
       <c r="M18" t="n">
-        <v>67.07066197728564</v>
+        <v>67.07066197728557</v>
       </c>
       <c r="N18" t="n">
-        <v>68.84582282484095</v>
+        <v>68.84582282484088</v>
       </c>
       <c r="O18" t="n">
-        <v>62.9804777614993</v>
+        <v>62.98047776149923</v>
       </c>
       <c r="P18" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060342</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096104</v>
       </c>
       <c r="R18" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S18" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487696</v>
       </c>
       <c r="T18" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H19" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420524</v>
       </c>
       <c r="I19" t="n">
-        <v>6.673778006342637</v>
+        <v>6.67377800634263</v>
       </c>
       <c r="J19" t="n">
-        <v>15.68983420656792</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K19" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801051</v>
       </c>
       <c r="L19" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881722</v>
       </c>
       <c r="M19" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N19" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208148</v>
       </c>
       <c r="O19" t="n">
-        <v>31.36756361626824</v>
+        <v>31.3675636162682</v>
       </c>
       <c r="P19" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R19" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200312</v>
       </c>
       <c r="S19" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201576</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9482090879628288</v>
+        <v>0.9482090879628278</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.4947354163646528</v>
       </c>
       <c r="H20" t="n">
-        <v>5.066709082844508</v>
+        <v>5.066709082844502</v>
       </c>
       <c r="I20" t="n">
-        <v>19.07328713939832</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J20" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467949</v>
       </c>
       <c r="K20" t="n">
-        <v>62.93220021939532</v>
+        <v>62.93220021939526</v>
       </c>
       <c r="L20" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796502</v>
       </c>
       <c r="M20" t="n">
-        <v>86.87121017874</v>
+        <v>86.8712101787399</v>
       </c>
       <c r="N20" t="n">
-        <v>88.27687718048608</v>
+        <v>88.27687718048598</v>
       </c>
       <c r="O20" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400996</v>
       </c>
       <c r="P20" t="n">
-        <v>71.14357129250766</v>
+        <v>71.14357129250759</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.4258591939485</v>
+        <v>53.42585919394844</v>
       </c>
       <c r="R20" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821615</v>
       </c>
       <c r="S20" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T20" t="n">
-        <v>2.165704285136271</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03957883330917226</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2647067843313334</v>
+        <v>0.2647067843313331</v>
       </c>
       <c r="H21" t="n">
-        <v>2.556510259199983</v>
+        <v>2.55651025919998</v>
       </c>
       <c r="I21" t="n">
-        <v>9.113808144741084</v>
+        <v>9.113808144741075</v>
       </c>
       <c r="J21" t="n">
-        <v>25.00898614597041</v>
+        <v>25.00898614597038</v>
       </c>
       <c r="K21" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616969</v>
       </c>
       <c r="L21" t="n">
-        <v>57.47504104527482</v>
+        <v>57.47504104527476</v>
       </c>
       <c r="M21" t="n">
-        <v>67.07066197728564</v>
+        <v>67.07066197728557</v>
       </c>
       <c r="N21" t="n">
-        <v>68.84582282484095</v>
+        <v>68.84582282484088</v>
       </c>
       <c r="O21" t="n">
-        <v>62.9804777614993</v>
+        <v>62.98047776149923</v>
       </c>
       <c r="P21" t="n">
-        <v>50.54738586060348</v>
+        <v>50.54738586060342</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096104</v>
       </c>
       <c r="R21" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S21" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487696</v>
       </c>
       <c r="T21" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H22" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420524</v>
       </c>
       <c r="I22" t="n">
-        <v>6.673778006342637</v>
+        <v>6.67377800634263</v>
       </c>
       <c r="J22" t="n">
-        <v>15.68983420656792</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K22" t="n">
-        <v>25.78321732801054</v>
+        <v>25.78321732801051</v>
       </c>
       <c r="L22" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881722</v>
       </c>
       <c r="M22" t="n">
-        <v>34.78716873136821</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N22" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208148</v>
       </c>
       <c r="O22" t="n">
-        <v>31.36756361626824</v>
+        <v>31.3675636162682</v>
       </c>
       <c r="P22" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R22" t="n">
-        <v>9.978387551200322</v>
+        <v>9.978387551200312</v>
       </c>
       <c r="S22" t="n">
-        <v>3.86748259920158</v>
+        <v>3.867482599201576</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9482090879628288</v>
+        <v>0.9482090879628278</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.494735416364653</v>
+        <v>0.4947354163646529</v>
       </c>
       <c r="H23" t="n">
-        <v>5.066709082844504</v>
+        <v>5.066709082844503</v>
       </c>
       <c r="I23" t="n">
         <v>19.0732871393983</v>
       </c>
       <c r="J23" t="n">
-        <v>41.99005004467951</v>
+        <v>41.9900500446795</v>
       </c>
       <c r="K23" t="n">
-        <v>62.93220021939528</v>
+        <v>62.93220021939527</v>
       </c>
       <c r="L23" t="n">
-        <v>78.07295921796505</v>
+        <v>78.07295921796504</v>
       </c>
       <c r="M23" t="n">
-        <v>86.87121017873994</v>
+        <v>86.87121017873993</v>
       </c>
       <c r="N23" t="n">
         <v>88.27687718048601</v>
@@ -32727,7 +32727,7 @@
         <v>83.35735188400999</v>
       </c>
       <c r="P23" t="n">
-        <v>71.14357129250762</v>
+        <v>71.1435712925076</v>
       </c>
       <c r="Q23" t="n">
         <v>53.42585919394845</v>
@@ -32739,10 +32739,10 @@
         <v>11.27378330040954</v>
       </c>
       <c r="T23" t="n">
-        <v>2.16570428513627</v>
+        <v>2.165704285136269</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03957883330917223</v>
+        <v>0.03957883330917222</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32794,19 +32794,19 @@
         <v>42.74434069616971</v>
       </c>
       <c r="L24" t="n">
-        <v>57.47504104527478</v>
+        <v>57.47504104527477</v>
       </c>
       <c r="M24" t="n">
-        <v>67.0706619772856</v>
+        <v>67.07066197728558</v>
       </c>
       <c r="N24" t="n">
-        <v>68.84582282484091</v>
+        <v>68.84582282484089</v>
       </c>
       <c r="O24" t="n">
-        <v>62.98047776149925</v>
+        <v>62.98047776149924</v>
       </c>
       <c r="P24" t="n">
-        <v>50.54738586060344</v>
+        <v>50.54738586060343</v>
       </c>
       <c r="Q24" t="n">
         <v>33.78958882096106</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2219212759061939</v>
+        <v>0.2219212759061938</v>
       </c>
       <c r="H25" t="n">
         <v>1.973081889420525</v>
       </c>
       <c r="I25" t="n">
-        <v>6.673778006342633</v>
+        <v>6.673778006342632</v>
       </c>
       <c r="J25" t="n">
-        <v>15.68983420656791</v>
+        <v>15.6898342065679</v>
       </c>
       <c r="K25" t="n">
         <v>25.78321732801052</v>
@@ -32885,19 +32885,19 @@
         <v>31.36756361626821</v>
       </c>
       <c r="P25" t="n">
-        <v>26.84036958778184</v>
+        <v>26.84036958778183</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.58288065792684</v>
+        <v>18.58288065792683</v>
       </c>
       <c r="R25" t="n">
-        <v>9.978387551200315</v>
+        <v>9.978387551200314</v>
       </c>
       <c r="S25" t="n">
         <v>3.867482599201577</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9482090879628281</v>
+        <v>0.948209087962828</v>
       </c>
       <c r="U25" t="n">
         <v>0.01210479686761059</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H38" t="n">
-        <v>5.066709082844507</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I38" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J38" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K38" t="n">
-        <v>62.93220021939531</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L38" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M38" t="n">
-        <v>86.87121017873999</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N38" t="n">
-        <v>88.27687718048607</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O38" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P38" t="n">
-        <v>71.14357129250764</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.42585919394849</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R38" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S38" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T38" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03957883330917225</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H39" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I39" t="n">
-        <v>9.113808144741082</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J39" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K39" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L39" t="n">
-        <v>57.47504104527481</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M39" t="n">
-        <v>67.07066197728562</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N39" t="n">
-        <v>68.84582282484094</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O39" t="n">
-        <v>62.98047776149929</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P39" t="n">
-        <v>50.54738586060347</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R39" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S39" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T39" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H40" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I40" t="n">
-        <v>6.673778006342636</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J40" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K40" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L40" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M40" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N40" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O40" t="n">
-        <v>31.36756361626823</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P40" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R40" t="n">
-        <v>9.978387551200321</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S40" t="n">
-        <v>3.867482599201579</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9482090879628287</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H41" t="n">
-        <v>5.066709082844507</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I41" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J41" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K41" t="n">
-        <v>62.93220021939531</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L41" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M41" t="n">
-        <v>86.87121017873999</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N41" t="n">
-        <v>88.27687718048607</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O41" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P41" t="n">
-        <v>71.14357129250764</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.42585919394849</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R41" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S41" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T41" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03957883330917225</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H42" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I42" t="n">
-        <v>9.113808144741082</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J42" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K42" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L42" t="n">
-        <v>57.47504104527481</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M42" t="n">
-        <v>67.07066197728562</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N42" t="n">
-        <v>68.84582282484094</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O42" t="n">
-        <v>62.98047776149929</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P42" t="n">
-        <v>50.54738586060347</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R42" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S42" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T42" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H43" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I43" t="n">
-        <v>6.673778006342636</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J43" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K43" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L43" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M43" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N43" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O43" t="n">
-        <v>31.36756361626823</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P43" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R43" t="n">
-        <v>9.978387551200321</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S43" t="n">
-        <v>3.867482599201579</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9482090879628287</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4947354163646533</v>
+        <v>0.494735416364653</v>
       </c>
       <c r="H44" t="n">
-        <v>5.066709082844507</v>
+        <v>5.066709082844504</v>
       </c>
       <c r="I44" t="n">
-        <v>19.07328713939831</v>
+        <v>19.0732871393983</v>
       </c>
       <c r="J44" t="n">
-        <v>41.99005004467953</v>
+        <v>41.99005004467951</v>
       </c>
       <c r="K44" t="n">
-        <v>62.93220021939531</v>
+        <v>62.93220021939528</v>
       </c>
       <c r="L44" t="n">
-        <v>78.07295921796509</v>
+        <v>78.07295921796505</v>
       </c>
       <c r="M44" t="n">
-        <v>86.87121017873999</v>
+        <v>86.87121017873994</v>
       </c>
       <c r="N44" t="n">
-        <v>88.27687718048607</v>
+        <v>88.27687718048601</v>
       </c>
       <c r="O44" t="n">
-        <v>83.35735188401004</v>
+        <v>83.35735188400999</v>
       </c>
       <c r="P44" t="n">
-        <v>71.14357129250764</v>
+        <v>71.14357129250762</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.42585919394849</v>
+        <v>53.42585919394845</v>
       </c>
       <c r="R44" t="n">
-        <v>31.07742359821618</v>
+        <v>31.07742359821616</v>
       </c>
       <c r="S44" t="n">
-        <v>11.27378330040955</v>
+        <v>11.27378330040954</v>
       </c>
       <c r="T44" t="n">
-        <v>2.165704285136271</v>
+        <v>2.16570428513627</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03957883330917225</v>
+        <v>0.03957883330917223</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2647067843313333</v>
+        <v>0.2647067843313332</v>
       </c>
       <c r="H45" t="n">
-        <v>2.556510259199983</v>
+        <v>2.556510259199981</v>
       </c>
       <c r="I45" t="n">
-        <v>9.113808144741082</v>
+        <v>9.113808144741077</v>
       </c>
       <c r="J45" t="n">
-        <v>25.0089861459704</v>
+        <v>25.00898614597039</v>
       </c>
       <c r="K45" t="n">
-        <v>42.74434069616974</v>
+        <v>42.74434069616971</v>
       </c>
       <c r="L45" t="n">
-        <v>57.47504104527481</v>
+        <v>57.47504104527478</v>
       </c>
       <c r="M45" t="n">
-        <v>67.07066197728562</v>
+        <v>67.0706619772856</v>
       </c>
       <c r="N45" t="n">
-        <v>68.84582282484094</v>
+        <v>68.84582282484091</v>
       </c>
       <c r="O45" t="n">
-        <v>62.98047776149929</v>
+        <v>62.98047776149925</v>
       </c>
       <c r="P45" t="n">
-        <v>50.54738586060347</v>
+        <v>50.54738586060344</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.78958882096108</v>
+        <v>33.78958882096106</v>
       </c>
       <c r="R45" t="n">
-        <v>16.43504052190507</v>
+        <v>16.43504052190506</v>
       </c>
       <c r="S45" t="n">
-        <v>4.916812419487702</v>
+        <v>4.916812419487698</v>
       </c>
       <c r="T45" t="n">
-        <v>1.066954100002172</v>
+        <v>1.066954100002171</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01741492002179825</v>
+        <v>0.01741492002179824</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.221921275906194</v>
+        <v>0.2219212759061939</v>
       </c>
       <c r="H46" t="n">
-        <v>1.973081889420526</v>
+        <v>1.973081889420525</v>
       </c>
       <c r="I46" t="n">
-        <v>6.673778006342636</v>
+        <v>6.673778006342633</v>
       </c>
       <c r="J46" t="n">
         <v>15.68983420656791</v>
       </c>
       <c r="K46" t="n">
-        <v>25.78321732801053</v>
+        <v>25.78321732801052</v>
       </c>
       <c r="L46" t="n">
-        <v>32.99364132881725</v>
+        <v>32.99364132881723</v>
       </c>
       <c r="M46" t="n">
-        <v>34.7871687313682</v>
+        <v>34.78716873136818</v>
       </c>
       <c r="N46" t="n">
-        <v>33.96000761208151</v>
+        <v>33.96000761208149</v>
       </c>
       <c r="O46" t="n">
-        <v>31.36756361626823</v>
+        <v>31.36756361626821</v>
       </c>
       <c r="P46" t="n">
-        <v>26.84036958778185</v>
+        <v>26.84036958778184</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.58288065792685</v>
+        <v>18.58288065792684</v>
       </c>
       <c r="R46" t="n">
-        <v>9.978387551200321</v>
+        <v>9.978387551200315</v>
       </c>
       <c r="S46" t="n">
-        <v>3.867482599201579</v>
+        <v>3.867482599201577</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9482090879628287</v>
+        <v>0.9482090879628281</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0121047968676106</v>
+        <v>0.01210479686761059</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,16 +34698,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>533.1427107449111</v>
@@ -34716,10 +34716,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>168.1956421958672</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34786,19 +34786,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.465299698097541</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>444.7268946856517</v>
+        <v>497.9396303685323</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35257,10 +35257,10 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>144.92591800486</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35421,7 +35421,7 @@
         <v>638.3872708298314</v>
       </c>
       <c r="N11" t="n">
-        <v>621.4195879253971</v>
+        <v>621.4195879253972</v>
       </c>
       <c r="O11" t="n">
         <v>527.8417972297963</v>
@@ -35491,16 +35491,16 @@
         <v>139.2665439436748</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>486.1981422977056</v>
       </c>
       <c r="M12" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>150.7278780221909</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>584.7181369443084</v>
@@ -35658,7 +35658,7 @@
         <v>638.3872708298314</v>
       </c>
       <c r="N14" t="n">
-        <v>621.4195879253971</v>
+        <v>621.4195879253972</v>
       </c>
       <c r="O14" t="n">
         <v>527.8417972297963</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M15" t="n">
-        <v>530.4520519301934</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>584.7181369443084</v>
@@ -35746,7 +35746,7 @@
         <v>460.2659401195907</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K17" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L17" t="n">
         <v>576.376284186176</v>
       </c>
       <c r="M17" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N17" t="n">
-        <v>621.4195879253972</v>
+        <v>621.4195879253971</v>
       </c>
       <c r="O17" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P17" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q17" t="n">
         <v>240.1385462050076</v>
@@ -35971,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>701.1834393779737</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N18" t="n">
-        <v>731.2478139466178</v>
+        <v>731.2478139466177</v>
       </c>
       <c r="O18" t="n">
-        <v>584.7181369443084</v>
+        <v>584.7181369443083</v>
       </c>
       <c r="P18" t="n">
-        <v>289.5345526718099</v>
+        <v>19.01254813883911</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M19" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N19" t="n">
         <v>219.0000419870403</v>
@@ -36062,7 +36062,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807931</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K20" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L20" t="n">
         <v>576.376284186176</v>
       </c>
       <c r="M20" t="n">
-        <v>638.3872708298316</v>
+        <v>638.3872708298314</v>
       </c>
       <c r="N20" t="n">
-        <v>621.4195879253972</v>
+        <v>621.4195879253971</v>
       </c>
       <c r="O20" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P20" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q20" t="n">
         <v>240.1385462050076</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M21" t="n">
-        <v>530.4520519301933</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N21" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>584.7181369443084</v>
+        <v>584.7181369443083</v>
       </c>
       <c r="P21" t="n">
-        <v>460.2659401195908</v>
+        <v>109.1435586542167</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M22" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N22" t="n">
         <v>219.0000419870403</v>
@@ -36299,7 +36299,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807931</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K24" t="n">
         <v>365.713175102459</v>
@@ -36445,7 +36445,7 @@
         <v>545.9256328617528</v>
       </c>
       <c r="M24" t="n">
-        <v>350.0610579125994</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>460.2659401195907</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.7945139689248</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>79.53905337962766</v>
       </c>
       <c r="K27" t="n">
-        <v>14.59079363708482</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L27" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M27" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>460.2659401195907</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>527.8417972297963</v>
       </c>
       <c r="P29" t="n">
-        <v>422.8481087990958</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q29" t="n">
         <v>240.1385462050076</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>14.59079363708482</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M30" t="n">
         <v>701.1834393779736</v>
       </c>
       <c r="N30" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>413.9867494965283</v>
+        <v>584.7181369443084</v>
       </c>
       <c r="P30" t="n">
         <v>460.2659401195907</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M33" t="n">
-        <v>530.4520519301934</v>
+        <v>701.1834393779736</v>
       </c>
       <c r="N33" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>584.7181369443084</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>460.2659401195907</v>
+        <v>284.0731471218785</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L36" t="n">
         <v>545.9256328617528</v>
       </c>
       <c r="M36" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>731.2478139466177</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>328.3270567543663</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K38" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L38" t="n">
         <v>576.376284186176</v>
@@ -37557,10 +37557,10 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O38" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P38" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q38" t="n">
         <v>240.1385462050076</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L39" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M39" t="n">
-        <v>444.7923591880312</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M40" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N40" t="n">
         <v>219.0000419870403</v>
@@ -37721,7 +37721,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>188.1009317707685</v>
       </c>
       <c r="K41" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L41" t="n">
         <v>576.376284186176</v>
@@ -37794,10 +37794,10 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O41" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P41" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q41" t="n">
         <v>240.1385462050076</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>365.713175102459</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M42" t="n">
-        <v>530.4520519301933</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>731.2478139466178</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>584.7181369443084</v>
       </c>
       <c r="P42" t="n">
-        <v>460.2659401195908</v>
+        <v>400.5384495555438</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37946,7 +37946,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M43" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N43" t="n">
         <v>219.0000419870403</v>
@@ -37958,7 +37958,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.1009317707685</v>
+        <v>188.1009317707686</v>
       </c>
       <c r="K44" t="n">
-        <v>425.540640651175</v>
+        <v>425.5406406511749</v>
       </c>
       <c r="L44" t="n">
         <v>576.376284186176</v>
@@ -38031,10 +38031,10 @@
         <v>621.4195879253972</v>
       </c>
       <c r="O44" t="n">
-        <v>527.8417972297964</v>
+        <v>527.8417972297963</v>
       </c>
       <c r="P44" t="n">
-        <v>422.8481087990954</v>
+        <v>422.8481087990953</v>
       </c>
       <c r="Q44" t="n">
         <v>240.1385462050076</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>139.2665439436748</v>
       </c>
       <c r="K45" t="n">
         <v>365.713175102459</v>
       </c>
       <c r="L45" t="n">
-        <v>545.9256328617529</v>
+        <v>545.9256328617528</v>
       </c>
       <c r="M45" t="n">
-        <v>701.1834393779736</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>109.1435586542165</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>584.7181369443084</v>
+        <v>524.9906463802614</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>460.2659401195907</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>270.5220045329717</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38183,7 +38183,7 @@
         <v>198.7791361508372</v>
       </c>
       <c r="M46" t="n">
-        <v>222.9604801841602</v>
+        <v>222.9604801841601</v>
       </c>
       <c r="N46" t="n">
         <v>219.0000419870403</v>
@@ -38195,7 +38195,7 @@
         <v>147.92740572574</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.03964466807933</v>
+        <v>22.03964466807932</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
